--- a/public/data/name_matching.xlsx
+++ b/public/data/name_matching.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15200" tabRatio="500"/>
+    <workbookView xWindow="4340" yWindow="1260" windowWidth="28160" windowHeight="15200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,1768 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="576">
+  <si>
+    <t>GR_name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>3M Co</t>
+  </si>
+  <si>
+    <t>Abbott</t>
+  </si>
+  <si>
+    <t>Abbott Laboratories</t>
+  </si>
+  <si>
+    <t>AbbVie Inc</t>
+  </si>
+  <si>
+    <t>Accenture</t>
+  </si>
+  <si>
+    <t>Accenture PLC</t>
+  </si>
+  <si>
+    <t>Activision Blizzard Inc</t>
+  </si>
+  <si>
+    <t>Adobe Systems</t>
+  </si>
+  <si>
+    <t>Adobe Systems Inc</t>
+  </si>
+  <si>
+    <t>ADT Corp/The</t>
+  </si>
+  <si>
+    <t>Advance Auto Parts Inc</t>
+  </si>
+  <si>
+    <t>AES Corp/VA</t>
+  </si>
+  <si>
+    <t>Aetna Inc</t>
+  </si>
+  <si>
+    <t>Affiliated Managers Group Inc</t>
+  </si>
+  <si>
+    <t>Aflac Inc</t>
+  </si>
+  <si>
+    <t>Agilent Technologies Inc</t>
+  </si>
+  <si>
+    <t>AGL Resources Inc</t>
+  </si>
+  <si>
+    <t>Air Products</t>
+  </si>
+  <si>
+    <t>Air Products &amp; Chemicals Inc</t>
+  </si>
+  <si>
+    <t>Airgas Inc</t>
+  </si>
+  <si>
+    <t>Akamai Technologies Inc</t>
+  </si>
+  <si>
+    <t>Alcoa Inc</t>
+  </si>
+  <si>
+    <t>Alexion Pharmaceuticals Inc</t>
+  </si>
+  <si>
+    <t>Allegion PLC</t>
+  </si>
+  <si>
+    <t>Allergan plc</t>
+  </si>
+  <si>
+    <t>Alliance Data Systems Corp</t>
+  </si>
+  <si>
+    <t>Allstate</t>
+  </si>
+  <si>
+    <t>Allstate Corp/The</t>
+  </si>
+  <si>
+    <t>Alphabet Inc</t>
+  </si>
+  <si>
+    <t>Altria Group Inc</t>
+  </si>
+  <si>
+    <t>Amazon.com Inc</t>
+  </si>
+  <si>
+    <t>Ameren Corp</t>
+  </si>
+  <si>
+    <t>American Airlines Group Inc</t>
+  </si>
+  <si>
+    <t>American Electric Power (AEP)</t>
+  </si>
+  <si>
+    <t>American Electric Power Co Inc</t>
+  </si>
+  <si>
+    <t>American Express Global Business Travel</t>
+  </si>
+  <si>
+    <t>American Express Co</t>
+  </si>
+  <si>
+    <t>American International Group Inc</t>
+  </si>
+  <si>
+    <t>American Tower Corp</t>
+  </si>
+  <si>
+    <t>American Water Works Co Inc</t>
+  </si>
+  <si>
+    <t>Ameriprise Financial Inc</t>
+  </si>
+  <si>
+    <t>AmerisourceBergen Corp</t>
+  </si>
+  <si>
+    <t>AMETEK Inc</t>
+  </si>
+  <si>
+    <t>Amgen Inc</t>
+  </si>
+  <si>
+    <t>Amphenol Corp</t>
+  </si>
+  <si>
+    <t>Anadarko Petroleum Corp</t>
+  </si>
+  <si>
+    <t>Analog Devices Inc</t>
+  </si>
+  <si>
+    <t>Anthem Inc</t>
+  </si>
+  <si>
+    <t>Aon PLC</t>
+  </si>
+  <si>
+    <t>Apache Corporation</t>
+  </si>
+  <si>
+    <t>Apache Corp</t>
+  </si>
+  <si>
+    <t>Apartment Investment &amp; Management Co</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Apple Inc</t>
+  </si>
+  <si>
+    <t>Applied Materials Inc</t>
+  </si>
+  <si>
+    <t>Archer-Daniels-Midland Co</t>
+  </si>
+  <si>
+    <t>Assurant Inc</t>
+  </si>
+  <si>
+    <t>AT&amp;T</t>
+  </si>
+  <si>
+    <t>AT&amp;T Inc</t>
+  </si>
+  <si>
+    <t>Autodesk Inc</t>
+  </si>
+  <si>
+    <t>Automatic Data Processing Inc</t>
+  </si>
+  <si>
+    <t>AutoNation Inc</t>
+  </si>
+  <si>
+    <t>AutoZone Inc</t>
+  </si>
+  <si>
+    <t>AvalonBay Communities Inc</t>
+  </si>
+  <si>
+    <t>Avery Dennison Corp</t>
+  </si>
+  <si>
+    <t>Baker Hughes Inc</t>
+  </si>
+  <si>
+    <t>Ball Corp</t>
+  </si>
+  <si>
+    <t>Bank of America Corp.</t>
+  </si>
+  <si>
+    <t>Bank of America Corp</t>
+  </si>
+  <si>
+    <t>Bank of New York Mellon Corp/The</t>
+  </si>
+  <si>
+    <t>Baxalta Inc</t>
+  </si>
+  <si>
+    <t>Baxter International</t>
+  </si>
+  <si>
+    <t>Baxter International Inc</t>
+  </si>
+  <si>
+    <t>BB&amp;T Corp</t>
+  </si>
+  <si>
+    <t>Becton Dickinson and Co</t>
+  </si>
+  <si>
+    <t>Bed Bath &amp; Beyond Inc</t>
+  </si>
+  <si>
+    <t>Berkshire Hathaway Inc</t>
+  </si>
+  <si>
+    <t>Best Buy Co Inc</t>
+  </si>
+  <si>
+    <t>Biogen Inc</t>
+  </si>
+  <si>
+    <t>BlackRock Inc</t>
+  </si>
+  <si>
+    <t>Boeing Co/The</t>
+  </si>
+  <si>
+    <t>BorgWarner Inc</t>
+  </si>
+  <si>
+    <t>Boston Properties Inc</t>
+  </si>
+  <si>
+    <t>Boston Scientific Corp</t>
+  </si>
+  <si>
+    <t>Bristol-Myers Squibb Co</t>
+  </si>
+  <si>
+    <t>Broadcom Ltd</t>
+  </si>
+  <si>
+    <t>Brown-Forman Corp</t>
+  </si>
+  <si>
+    <t>CA Inc</t>
+  </si>
+  <si>
+    <t>Cablevision Systems Corp</t>
+  </si>
+  <si>
+    <t>Cabot Oil &amp; Gas Corp</t>
+  </si>
+  <si>
+    <t>Campbell Soup Co</t>
+  </si>
+  <si>
+    <t>Capital One Financial Corp</t>
+  </si>
+  <si>
+    <t>Cardinal Health Inc</t>
+  </si>
+  <si>
+    <t>CarMax Inc</t>
+  </si>
+  <si>
+    <t>Carnival Corp</t>
+  </si>
+  <si>
+    <t>Caterpillar Inc</t>
+  </si>
+  <si>
+    <t>CBRE Group Inc</t>
+  </si>
+  <si>
+    <t>CBS Corp</t>
+  </si>
+  <si>
+    <t>Celgene Corp</t>
+  </si>
+  <si>
+    <t>Centene Corp</t>
+  </si>
+  <si>
+    <t>CenterPoint Energy Inc</t>
+  </si>
+  <si>
+    <t>CenturyLink Inc</t>
+  </si>
+  <si>
+    <t>Cerner Corp</t>
+  </si>
+  <si>
+    <t>CF Industries Holdings Inc</t>
+  </si>
+  <si>
+    <t>CH Robinson Worldwide Inc</t>
+  </si>
+  <si>
+    <t>Charles Schwab Corp/The</t>
+  </si>
+  <si>
+    <t>Chesapeake Energy Corp</t>
+  </si>
+  <si>
+    <t>Chevron Corp</t>
+  </si>
+  <si>
+    <t>Chipotle Mexican Grill Inc</t>
+  </si>
+  <si>
+    <t>Chubb Ltd</t>
+  </si>
+  <si>
+    <t>Church &amp; Dwight Co Inc</t>
+  </si>
+  <si>
+    <t>Cigna Corp</t>
+  </si>
+  <si>
+    <t>Cimarex Energy Co</t>
+  </si>
+  <si>
+    <t>Cincinnati Financial Corp</t>
+  </si>
+  <si>
+    <t>Cintas Corp</t>
+  </si>
+  <si>
+    <t>Cisco Systems Inc</t>
+  </si>
+  <si>
+    <t>Citigroup Inc</t>
+  </si>
+  <si>
+    <t>Citizens Financial Group Inc</t>
+  </si>
+  <si>
+    <t>Citrix Systems Inc</t>
+  </si>
+  <si>
+    <t>Clorox Co/The</t>
+  </si>
+  <si>
+    <t>CME Group Inc/IL</t>
+  </si>
+  <si>
+    <t>CMS Energy Corp</t>
+  </si>
+  <si>
+    <t>Coach Inc</t>
+  </si>
+  <si>
+    <t>Coca-Cola Co/The</t>
+  </si>
+  <si>
+    <t>Coca-Cola Enterprises Inc</t>
+  </si>
+  <si>
+    <t>Cognizant Technology Solutions Corp</t>
+  </si>
+  <si>
+    <t>Colgate-Palmolive Co</t>
+  </si>
+  <si>
+    <t>Columbia Pipeline Group Inc</t>
+  </si>
+  <si>
+    <t>Comcast Corp</t>
+  </si>
+  <si>
+    <t>Comerica Inc</t>
+  </si>
+  <si>
+    <t>ConAgra Foods Inc</t>
+  </si>
+  <si>
+    <t>Concho Resources Inc</t>
+  </si>
+  <si>
+    <t>ConocoPhillips</t>
+  </si>
+  <si>
+    <t>Consolidated Edison Inc</t>
+  </si>
+  <si>
+    <t>Constellation Brands Inc</t>
+  </si>
+  <si>
+    <t>Corning Inc</t>
+  </si>
+  <si>
+    <t>Costco Wholesale Corp</t>
+  </si>
+  <si>
+    <t>CR Bard Inc</t>
+  </si>
+  <si>
+    <t>Crown Castle International Corp</t>
+  </si>
+  <si>
+    <t>CSRA Inc</t>
+  </si>
+  <si>
+    <t>CSX Corp</t>
+  </si>
+  <si>
+    <t>Cummins Inc</t>
+  </si>
+  <si>
+    <t>CVS Health Corp</t>
+  </si>
+  <si>
+    <t>Danaher Corp</t>
+  </si>
+  <si>
+    <t>Darden Restaurants Inc</t>
+  </si>
+  <si>
+    <t>DaVita HealthCare Partners Inc</t>
+  </si>
+  <si>
+    <t>Deere &amp; Co</t>
+  </si>
+  <si>
+    <t>Delphi Automotive PLC</t>
+  </si>
+  <si>
+    <t>Delta Air Lines Inc</t>
+  </si>
+  <si>
+    <t>DENTSPLY SIRONA Inc</t>
+  </si>
+  <si>
+    <t>Devon Energy Corp</t>
+  </si>
+  <si>
+    <t>Diamond Offshore Drilling Inc</t>
+  </si>
+  <si>
+    <t>Discover Financial Services</t>
+  </si>
+  <si>
+    <t>Discovery Communications Inc</t>
+  </si>
+  <si>
+    <t>Dollar General Corp</t>
+  </si>
+  <si>
+    <t>Dollar Tree Inc</t>
+  </si>
+  <si>
+    <t>Dominion Resources Inc/VA</t>
+  </si>
+  <si>
+    <t>Dover Corp</t>
+  </si>
+  <si>
+    <t>Dow Chemical Co/The</t>
+  </si>
+  <si>
+    <t>DR Horton Inc</t>
+  </si>
+  <si>
+    <t>Dr Pepper Snapple Group Inc</t>
+  </si>
+  <si>
+    <t>DTE Energy Co</t>
+  </si>
+  <si>
+    <t>Duke Energy Corp</t>
+  </si>
+  <si>
+    <t>Dun &amp; Bradstreet Corp/The</t>
+  </si>
+  <si>
+    <t>E*TRADE Financial Corp</t>
+  </si>
+  <si>
+    <t>Eastman Chemical Co</t>
+  </si>
+  <si>
+    <t>Eaton Corp PLC</t>
+  </si>
+  <si>
+    <t>eBay Inc</t>
+  </si>
+  <si>
+    <t>Ecolab Inc</t>
+  </si>
+  <si>
+    <t>Edison International</t>
+  </si>
+  <si>
+    <t>Edwards Lifesciences Corp</t>
+  </si>
+  <si>
+    <t>EI du Pont de Nemours &amp; Co</t>
+  </si>
+  <si>
+    <t>Electronic Arts Inc</t>
+  </si>
+  <si>
+    <t>Eli Lilly &amp; Co</t>
+  </si>
+  <si>
+    <t>EMC Corp/MA</t>
+  </si>
+  <si>
+    <t>Emerson Electric Co</t>
+  </si>
+  <si>
+    <t>Endo International PLC</t>
+  </si>
+  <si>
+    <t>Entergy Corp</t>
+  </si>
+  <si>
+    <t>EOG Resources Inc</t>
+  </si>
+  <si>
+    <t>EQT Corp</t>
+  </si>
+  <si>
+    <t>Equifax Inc</t>
+  </si>
+  <si>
+    <t>Equinix Inc</t>
+  </si>
+  <si>
+    <t>Equity Residential</t>
+  </si>
+  <si>
+    <t>Essex Property Trust Inc</t>
+  </si>
+  <si>
+    <t>Estee Lauder Cos Inc/The</t>
+  </si>
+  <si>
+    <t>Eversource Energy</t>
+  </si>
+  <si>
+    <t>Exelon Corp</t>
+  </si>
+  <si>
+    <t>Expedia Inc</t>
+  </si>
+  <si>
+    <t>Expeditors International of Washington I</t>
+  </si>
+  <si>
+    <t>Express Scripts Holding Co</t>
+  </si>
+  <si>
+    <t>Extra Space Storage Inc</t>
+  </si>
+  <si>
+    <t>Exxon Mobil Corp</t>
+  </si>
+  <si>
+    <t>F5 Networks Inc</t>
+  </si>
+  <si>
+    <t>Facebook Inc</t>
+  </si>
+  <si>
+    <t>Fastenal Co</t>
+  </si>
+  <si>
+    <t>Federal Realty Investment Trust</t>
+  </si>
+  <si>
+    <t>FedEx Corp</t>
+  </si>
+  <si>
+    <t>Fidelity National Information Services I</t>
+  </si>
+  <si>
+    <t>Fifth Third Bancorp</t>
+  </si>
+  <si>
+    <t>First Solar Inc</t>
+  </si>
+  <si>
+    <t>FirstEnergy Corp</t>
+  </si>
+  <si>
+    <t>Fiserv Inc</t>
+  </si>
+  <si>
+    <t>FLIR Systems Inc</t>
+  </si>
+  <si>
+    <t>Flowserve Corp</t>
+  </si>
+  <si>
+    <t>Fluor Corp</t>
+  </si>
+  <si>
+    <t>FMC Corp</t>
+  </si>
+  <si>
+    <t>FMC Technologies Inc</t>
+  </si>
+  <si>
+    <t>Foot Locker Inc</t>
+  </si>
+  <si>
+    <t>Ford Motor Co</t>
+  </si>
+  <si>
+    <t>Franklin Resources Inc</t>
+  </si>
+  <si>
+    <t>Freeport-McMoRan Inc</t>
+  </si>
+  <si>
+    <t>Frontier Communications Corp</t>
+  </si>
+  <si>
+    <t>GameStop Corp</t>
+  </si>
+  <si>
+    <t>Gap Inc/The</t>
+  </si>
+  <si>
+    <t>Garmin Ltd</t>
+  </si>
+  <si>
+    <t>General Dynamics Corp</t>
+  </si>
+  <si>
+    <t>General Electric Co</t>
+  </si>
+  <si>
+    <t>General Growth Properties Inc</t>
+  </si>
+  <si>
+    <t>General Mills Inc</t>
+  </si>
+  <si>
+    <t>General Motors Co</t>
+  </si>
+  <si>
+    <t>Genuine Parts Co</t>
+  </si>
+  <si>
+    <t>Gilead Sciences Inc</t>
+  </si>
+  <si>
+    <t>Goldman Sachs Group Inc/The</t>
+  </si>
+  <si>
+    <t>Goodyear Tire &amp; Rubber Co/The</t>
+  </si>
+  <si>
+    <t>H&amp;R Block Inc</t>
+  </si>
+  <si>
+    <t>Halliburton Co</t>
+  </si>
+  <si>
+    <t>Hanesbrands Inc</t>
+  </si>
+  <si>
+    <t>Harley-Davidson Inc</t>
+  </si>
+  <si>
+    <t>Harman International Industries Inc</t>
+  </si>
+  <si>
+    <t>Harris Corp</t>
+  </si>
+  <si>
+    <t>Hartford Financial Services Group Inc/Th</t>
+  </si>
+  <si>
+    <t>Hasbro Inc</t>
+  </si>
+  <si>
+    <t>HCA Holdings Inc</t>
+  </si>
+  <si>
+    <t>HCP Inc</t>
+  </si>
+  <si>
+    <t>Helmerich &amp; Payne Inc</t>
+  </si>
+  <si>
+    <t>Henry Schein Inc</t>
+  </si>
+  <si>
+    <t>Hershey Co/The</t>
+  </si>
+  <si>
+    <t>Hess Corp</t>
+  </si>
+  <si>
+    <t>Hewlett Packard Enterprise Co</t>
+  </si>
+  <si>
+    <t>Hologic Inc</t>
+  </si>
+  <si>
+    <t>Home Depot Inc/The</t>
+  </si>
+  <si>
+    <t>Honeywell International Inc</t>
+  </si>
+  <si>
+    <t>Hormel Foods Corp</t>
+  </si>
+  <si>
+    <t>Host Hotels &amp; Resorts Inc</t>
+  </si>
+  <si>
+    <t>HP Inc</t>
+  </si>
+  <si>
+    <t>Humana Inc</t>
+  </si>
+  <si>
+    <t>Huntington Bancshares Inc/OH</t>
+  </si>
+  <si>
+    <t>Illinois Tool Works Inc</t>
+  </si>
+  <si>
+    <t>Illumina Inc</t>
+  </si>
+  <si>
+    <t>Ingersoll-Rand PLC</t>
+  </si>
+  <si>
+    <t>Intel Corp</t>
+  </si>
+  <si>
+    <t>Intercontinental Exchange Inc</t>
+  </si>
+  <si>
+    <t>International Business Machines Corp</t>
+  </si>
+  <si>
+    <t>International Flavors &amp; Fragrances Inc</t>
+  </si>
+  <si>
+    <t>International Paper Co</t>
+  </si>
+  <si>
+    <t>Interpublic Group of Cos Inc/The</t>
+  </si>
+  <si>
+    <t>Intuit Inc</t>
+  </si>
+  <si>
+    <t>Intuitive Surgical Inc</t>
+  </si>
+  <si>
+    <t>Invesco Ltd</t>
+  </si>
+  <si>
+    <t>Iron Mountain Inc</t>
+  </si>
+  <si>
+    <t>Jacobs Engineering Group Inc</t>
+  </si>
+  <si>
+    <t>JB Hunt Transport Services Inc</t>
+  </si>
+  <si>
+    <t>JM Smucker Co/The</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
+    <t>Johnson Controls Inc</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co</t>
+  </si>
+  <si>
+    <t>Juniper Networks Inc</t>
+  </si>
+  <si>
+    <t>Kansas City Southern</t>
+  </si>
+  <si>
+    <t>Kellogg Co</t>
+  </si>
+  <si>
+    <t>KeyCorp</t>
+  </si>
+  <si>
+    <t>Kimberly-Clark Corp</t>
+  </si>
+  <si>
+    <t>Kimco Realty Corp</t>
+  </si>
+  <si>
+    <t>Kinder Morgan Inc/DE</t>
+  </si>
+  <si>
+    <t>KLA-Tencor Corp</t>
+  </si>
+  <si>
+    <t>Kohl's Corp</t>
+  </si>
+  <si>
+    <t>Kraft Heinz Co/The</t>
+  </si>
+  <si>
+    <t>Kroger Co/The</t>
+  </si>
+  <si>
+    <t>L Brands Inc</t>
+  </si>
+  <si>
+    <t>L-3 Communications Holdings Inc</t>
+  </si>
+  <si>
+    <t>Laboratory Corp of America Holdings</t>
+  </si>
+  <si>
+    <t>Lam Research Corp</t>
+  </si>
+  <si>
+    <t>Legg Mason Inc</t>
+  </si>
+  <si>
+    <t>Leggett &amp; Platt Inc</t>
+  </si>
+  <si>
+    <t>Lennar Corp</t>
+  </si>
+  <si>
+    <t>Leucadia National Corp</t>
+  </si>
+  <si>
+    <t>Level 3 Communications Inc</t>
+  </si>
+  <si>
+    <t>Lincoln National Corp</t>
+  </si>
+  <si>
+    <t>Linear Technology Corp</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Corp</t>
+  </si>
+  <si>
+    <t>Loews Corp</t>
+  </si>
+  <si>
+    <t>Lowe's Cos Inc</t>
+  </si>
+  <si>
+    <t>LyondellBasell Industries NV</t>
+  </si>
+  <si>
+    <t>M&amp;T Bank Corp</t>
+  </si>
+  <si>
+    <t>Macerich Co/The</t>
+  </si>
+  <si>
+    <t>Macy's Inc</t>
+  </si>
+  <si>
+    <t>Mallinckrodt PLC</t>
+  </si>
+  <si>
+    <t>Marathon Oil Corp</t>
+  </si>
+  <si>
+    <t>Marathon Petroleum Corp</t>
+  </si>
+  <si>
+    <t>Marriott International Inc/MD</t>
+  </si>
+  <si>
+    <t>Marsh &amp; McLennan Cos Inc</t>
+  </si>
+  <si>
+    <t>Martin Marietta Materials Inc</t>
+  </si>
+  <si>
+    <t>Masco Corp</t>
+  </si>
+  <si>
+    <t>MasterCard Inc</t>
+  </si>
+  <si>
+    <t>Mattel Inc</t>
+  </si>
+  <si>
+    <t>McCormick &amp; Co Inc/MD</t>
+  </si>
+  <si>
+    <t>McDonald's Corp</t>
+  </si>
+  <si>
+    <t>McGraw Hill Financial Inc</t>
+  </si>
+  <si>
+    <t>McKesson Corp</t>
+  </si>
+  <si>
+    <t>Mead Johnson Nutrition Co</t>
+  </si>
+  <si>
+    <t>Medtronic PLC</t>
+  </si>
+  <si>
+    <t>Merck &amp; Co Inc</t>
+  </si>
+  <si>
+    <t>MetLife Inc</t>
+  </si>
+  <si>
+    <t>Michael Kors Holdings Ltd</t>
+  </si>
+  <si>
+    <t>Microchip Technology Inc</t>
+  </si>
+  <si>
+    <t>Micron Technology Inc</t>
+  </si>
+  <si>
+    <t>Microsoft Corp</t>
+  </si>
+  <si>
+    <t>Mohawk Industries Inc</t>
+  </si>
+  <si>
+    <t>Molson Coors Brewing Co</t>
+  </si>
+  <si>
+    <t>Mondelez International Inc</t>
+  </si>
+  <si>
+    <t>Monsanto Co</t>
+  </si>
+  <si>
+    <t>Monster Beverage Corp</t>
+  </si>
+  <si>
+    <t>Moody's Corp</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>Mosaic Co/The</t>
+  </si>
+  <si>
+    <t>Motorola Solutions Inc</t>
+  </si>
+  <si>
+    <t>Murphy Oil Corp</t>
+  </si>
+  <si>
+    <t>Mylan NV</t>
+  </si>
+  <si>
+    <t>Nasdaq Inc</t>
+  </si>
+  <si>
+    <t>National Oilwell Varco Inc</t>
+  </si>
+  <si>
+    <t>Navient Corp</t>
+  </si>
+  <si>
+    <t>NetApp Inc</t>
+  </si>
+  <si>
+    <t>Netflix Inc</t>
+  </si>
+  <si>
+    <t>Newell Rubbermaid Inc</t>
+  </si>
+  <si>
+    <t>Newfield Exploration Co</t>
+  </si>
+  <si>
+    <t>Newmont Mining Corp</t>
+  </si>
+  <si>
+    <t>News Corp</t>
+  </si>
+  <si>
+    <t>NextEra Energy Inc</t>
+  </si>
+  <si>
+    <t>Nielsen Holdings PLC</t>
+  </si>
+  <si>
+    <t>NIKE Inc</t>
+  </si>
+  <si>
+    <t>NiSource Inc</t>
+  </si>
+  <si>
+    <t>Noble Energy Inc</t>
+  </si>
+  <si>
+    <t>Nordstrom Inc</t>
+  </si>
+  <si>
+    <t>Norfolk Southern Corp</t>
+  </si>
+  <si>
+    <t>Northern Trust Corp</t>
+  </si>
+  <si>
+    <t>Northrop Grumman Corp</t>
+  </si>
+  <si>
+    <t>NRG Energy Inc</t>
+  </si>
+  <si>
+    <t>Nucor Corp</t>
+  </si>
+  <si>
+    <t>NVIDIA Corp</t>
+  </si>
+  <si>
+    <t>O'Reilly Automotive Inc</t>
+  </si>
+  <si>
+    <t>Occidental Petroleum Corp</t>
+  </si>
+  <si>
+    <t>Omnicom Group Inc</t>
+  </si>
+  <si>
+    <t>ONEOK Inc</t>
+  </si>
+  <si>
+    <t>Oracle Corp</t>
+  </si>
+  <si>
+    <t>Owens-Illinois Inc</t>
+  </si>
+  <si>
+    <t>PACCAR Inc</t>
+  </si>
+  <si>
+    <t>Parker-Hannifin Corp</t>
+  </si>
+  <si>
+    <t>Patterson Cos Inc</t>
+  </si>
+  <si>
+    <t>Paychex Inc</t>
+  </si>
+  <si>
+    <t>PayPal Holdings Inc</t>
+  </si>
+  <si>
+    <t>Pentair PLC</t>
+  </si>
+  <si>
+    <t>People's United Financial Inc</t>
+  </si>
+  <si>
+    <t>PepsiCo Inc</t>
+  </si>
+  <si>
+    <t>PerkinElmer Inc</t>
+  </si>
+  <si>
+    <t>Perrigo Co PLC</t>
+  </si>
+  <si>
+    <t>Pfizer Inc</t>
+  </si>
+  <si>
+    <t>PG&amp;E Corp</t>
+  </si>
+  <si>
+    <t>Philip Morris International Inc</t>
+  </si>
+  <si>
+    <t>Phillips 66</t>
+  </si>
+  <si>
+    <t>Pinnacle West Capital Corp</t>
+  </si>
+  <si>
+    <t>Pioneer Natural Resources Co</t>
+  </si>
+  <si>
+    <t>Pitney Bowes Inc</t>
+  </si>
+  <si>
+    <t>PNC Financial Services Group Inc/The</t>
+  </si>
+  <si>
+    <t>PPG Industries Inc</t>
+  </si>
+  <si>
+    <t>PPL Corp</t>
+  </si>
+  <si>
+    <t>Praxair Inc</t>
+  </si>
+  <si>
+    <t>Priceline Group Inc/The</t>
+  </si>
+  <si>
+    <t>Principal Financial Group Inc</t>
+  </si>
+  <si>
+    <t>Procter &amp; Gamble Co/The</t>
+  </si>
+  <si>
+    <t>Progressive Corp/The</t>
+  </si>
+  <si>
+    <t>Prologis</t>
+  </si>
+  <si>
+    <t>Prologis Inc</t>
+  </si>
+  <si>
+    <t>Prudential Financial Inc</t>
+  </si>
+  <si>
+    <t>Public Service Enterprise Group Inc</t>
+  </si>
+  <si>
+    <t>Public Storage</t>
+  </si>
+  <si>
+    <t>PulteGroup Inc</t>
+  </si>
+  <si>
+    <t>PVH Corp</t>
+  </si>
+  <si>
+    <t>Qorvo Inc</t>
+  </si>
+  <si>
+    <t>qualcomm</t>
+  </si>
+  <si>
+    <t>QUALCOMM Inc</t>
+  </si>
+  <si>
+    <t>Quanta Services Inc</t>
+  </si>
+  <si>
+    <t>Quest Diagnostics Inc</t>
+  </si>
+  <si>
+    <t>Ralph Lauren Corp</t>
+  </si>
+  <si>
+    <t>Range Resources Corp</t>
+  </si>
+  <si>
+    <t>Raytheon Company</t>
+  </si>
+  <si>
+    <t>Raytheon Co</t>
+  </si>
+  <si>
+    <t>Realty Income Corp</t>
+  </si>
+  <si>
+    <t>Red Hat Inc</t>
+  </si>
+  <si>
+    <t>Regeneron Pharmaceuticals Inc</t>
+  </si>
+  <si>
+    <t>Regions Financial Corp</t>
+  </si>
+  <si>
+    <t>Republic Services Inc</t>
+  </si>
+  <si>
+    <t>Reynolds American</t>
+  </si>
+  <si>
+    <t>Reynolds American Inc</t>
+  </si>
+  <si>
+    <t>Robert Half International</t>
+  </si>
+  <si>
+    <t>Robert Half International Inc</t>
+  </si>
+  <si>
+    <t>Rockwell Automation</t>
+  </si>
+  <si>
+    <t>Rockwell Automation Inc</t>
+  </si>
+  <si>
+    <t>Rockwell Collins</t>
+  </si>
+  <si>
+    <t>Rockwell Collins Inc</t>
+  </si>
+  <si>
+    <t>Roper Technologies Inc</t>
+  </si>
+  <si>
+    <t>Ross Stores Inc</t>
+  </si>
+  <si>
+    <t>Royal Caribbean Cruises Ltd.</t>
+  </si>
+  <si>
+    <t>Royal Caribbean Cruises Ltd</t>
+  </si>
+  <si>
+    <t>Ryder System</t>
+  </si>
+  <si>
+    <t>Ryder System Inc</t>
+  </si>
+  <si>
+    <t>salesforce</t>
+  </si>
+  <si>
+    <t>salesforce.com inc</t>
+  </si>
+  <si>
+    <t>SanDisk Corp</t>
+  </si>
+  <si>
+    <t>Scana Industrier ASA</t>
+  </si>
+  <si>
+    <t>SCANA Corp</t>
+  </si>
+  <si>
+    <t>Schlumberger</t>
+  </si>
+  <si>
+    <t>Schlumberger Ltd</t>
+  </si>
+  <si>
+    <t>Scripps Networks Interactive Inc</t>
+  </si>
+  <si>
+    <t>Seagate Technology</t>
+  </si>
+  <si>
+    <t>Seagate Technology PLC</t>
+  </si>
+  <si>
+    <t>Sealed Air Corporation</t>
+  </si>
+  <si>
+    <t>Sealed Air Corp</t>
+  </si>
+  <si>
+    <t>Sempra Energy</t>
+  </si>
+  <si>
+    <t>Sherwin-Williams</t>
+  </si>
+  <si>
+    <t>Sherwin-Williams Co/The</t>
+  </si>
+  <si>
+    <t>Signet Jewelers Ltd</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Simon Property Group Inc</t>
+  </si>
+  <si>
+    <t>Skyworks</t>
+  </si>
+  <si>
+    <t>Skyworks Solutions Inc</t>
+  </si>
+  <si>
+    <t>SL Green Realty</t>
+  </si>
+  <si>
+    <t>SL Green Realty Corp</t>
+  </si>
+  <si>
+    <t>Snap-on Inc</t>
+  </si>
+  <si>
+    <t>Southern Co/The</t>
+  </si>
+  <si>
+    <t>Southwest Airlines Co</t>
+  </si>
+  <si>
+    <t>Southwestern Energy Co</t>
+  </si>
+  <si>
+    <t>Spectra Energy Corp</t>
+  </si>
+  <si>
+    <t>St. Jude Medical</t>
+  </si>
+  <si>
+    <t>St Jude Medical Inc</t>
+  </si>
+  <si>
+    <t>Stanley Black &amp; Decker Inc</t>
+  </si>
+  <si>
+    <t>Staples Inc.</t>
+  </si>
+  <si>
+    <t>Staples Inc</t>
+  </si>
+  <si>
+    <t>Starbucks Coffee Company</t>
+  </si>
+  <si>
+    <t>Starbucks Corp</t>
+  </si>
+  <si>
+    <t>Starwood Hotels and Resorts</t>
+  </si>
+  <si>
+    <t>Starwood Hotels &amp; Resorts Worldwide Inc</t>
+  </si>
+  <si>
+    <t>State Street Corporation</t>
+  </si>
+  <si>
+    <t>State Street Corp</t>
+  </si>
+  <si>
+    <t>Stericycle</t>
+  </si>
+  <si>
+    <t>Stericycle Inc</t>
+  </si>
+  <si>
+    <t>Stryker Corp</t>
+  </si>
+  <si>
+    <t>SunTrust Banks Inc</t>
+  </si>
+  <si>
+    <t>Symantec</t>
+  </si>
+  <si>
+    <t>Symantec Corp</t>
+  </si>
+  <si>
+    <t>Synchrony Financial</t>
+  </si>
+  <si>
+    <t>Sysco Corp</t>
+  </si>
+  <si>
+    <t>T Rowe Price Group Inc</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Target Corp</t>
+  </si>
+  <si>
+    <t>TE Connectivity Ltd</t>
+  </si>
+  <si>
+    <t>TECO Energy Inc</t>
+  </si>
+  <si>
+    <t>TEGNA Inc</t>
+  </si>
+  <si>
+    <t>Tenet Healthcare Corporation</t>
+  </si>
+  <si>
+    <t>Tenet Healthcare Corp</t>
+  </si>
+  <si>
+    <t>Teradata</t>
+  </si>
+  <si>
+    <t>Teradata Corp</t>
+  </si>
+  <si>
+    <t>Tesoro</t>
+  </si>
+  <si>
+    <t>Tesoro Corp</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>Texas Instruments Inc</t>
+  </si>
+  <si>
+    <t>Textron Inc</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific Inc</t>
+  </si>
+  <si>
+    <t>Tiffany &amp; Co.</t>
+  </si>
+  <si>
+    <t>Tiffany &amp; Co</t>
+  </si>
+  <si>
+    <t>Time Warner Cable Inc</t>
+  </si>
+  <si>
+    <t>Time Warner Cable</t>
+  </si>
+  <si>
+    <t>Time Warner Inc</t>
+  </si>
+  <si>
+    <t>TJX Companies</t>
+  </si>
+  <si>
+    <t>TJX Cos Inc/The</t>
+  </si>
+  <si>
+    <t>Torchmark Corp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total System Services, Inc. </t>
+  </si>
+  <si>
+    <t>Total System Services Inc</t>
+  </si>
+  <si>
+    <t>Tractor Supply Company</t>
+  </si>
+  <si>
+    <t>Tractor Supply Co</t>
+  </si>
+  <si>
+    <t>Transocean Ltd</t>
+  </si>
+  <si>
+    <t>Travelers Cos Inc/The</t>
+  </si>
+  <si>
+    <t>TripAdvisor Inc</t>
+  </si>
+  <si>
+    <t>Twenty-First Century Fox Inc</t>
+  </si>
+  <si>
+    <t>Tyco International</t>
+  </si>
+  <si>
+    <t>Tyco International Plc</t>
+  </si>
+  <si>
+    <t>Tyson Foods</t>
+  </si>
+  <si>
+    <t>Tyson Foods Inc</t>
+  </si>
+  <si>
+    <t>UDR Inc</t>
+  </si>
+  <si>
+    <t>Under Armour Inc</t>
+  </si>
+  <si>
+    <t>Union Pacific Corp</t>
+  </si>
+  <si>
+    <t>United Continental Holdings Inc</t>
+  </si>
+  <si>
+    <t>United Parcel Service Inc</t>
+  </si>
+  <si>
+    <t>United Rentals</t>
+  </si>
+  <si>
+    <t>United Rentals Inc</t>
+  </si>
+  <si>
+    <t>United Technologies Corp</t>
+  </si>
+  <si>
+    <t>UnitedHealth Group</t>
+  </si>
+  <si>
+    <t>UnitedHealth Group Inc</t>
+  </si>
+  <si>
+    <t>Universal Health Services Inc</t>
+  </si>
+  <si>
+    <t>Unum Group</t>
+  </si>
+  <si>
+    <t>Urban Outfitters Inc</t>
+  </si>
+  <si>
+    <t>US Bancorp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valero Energy Corp. </t>
+  </si>
+  <si>
+    <t>Valero Energy Corp</t>
+  </si>
+  <si>
+    <t>Varian Medical Services</t>
+  </si>
+  <si>
+    <t>Varian Medical Systems Inc</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Ventas Inc</t>
+  </si>
+  <si>
+    <t>VeriSign Inc</t>
+  </si>
+  <si>
+    <t>Verisk Analytics</t>
+  </si>
+  <si>
+    <t>Verisk Analytics Inc</t>
+  </si>
+  <si>
+    <t>Verizon Communications</t>
+  </si>
+  <si>
+    <t>Verizon Communications Inc</t>
+  </si>
+  <si>
+    <t>Vertex Pharmaceuticals Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VF Corporation </t>
+  </si>
+  <si>
+    <t>VF Corp</t>
+  </si>
+  <si>
+    <t>Viacom</t>
+  </si>
+  <si>
+    <t>Viacom Inc</t>
+  </si>
+  <si>
+    <t>Visa Inc</t>
+  </si>
+  <si>
+    <t>Vornado Realty Trust</t>
+  </si>
+  <si>
+    <t>Vulcan Materials Company</t>
+  </si>
+  <si>
+    <t>Vulcan Materials Co</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Wal-Mart Stores Inc</t>
+  </si>
+  <si>
+    <t>Walgreens Boots Alliance</t>
+  </si>
+  <si>
+    <t>Walgreens Boots Alliance Inc</t>
+  </si>
+  <si>
+    <t>The Walt Disney Company</t>
+  </si>
+  <si>
+    <t>Walt Disney Co/The</t>
+  </si>
+  <si>
+    <t>Waste Management Inc</t>
+  </si>
+  <si>
+    <t>Waters Corp</t>
+  </si>
+  <si>
+    <t>WEC Energy Group Inc</t>
+  </si>
+  <si>
+    <t>Wells Fargo &amp; Company</t>
+  </si>
+  <si>
+    <t>Wells Fargo &amp; Co</t>
+  </si>
+  <si>
+    <t>Welltower Inc</t>
+  </si>
+  <si>
+    <t>Western Digital Corp</t>
+  </si>
+  <si>
+    <t>Western Union Co/The</t>
+  </si>
+  <si>
+    <t>WestRock Co</t>
+  </si>
+  <si>
+    <t>Weyerhaeuser</t>
+  </si>
+  <si>
+    <t>Weyerhaeuser Co</t>
+  </si>
+  <si>
+    <t>Whirlpool</t>
+  </si>
+  <si>
+    <t>Whirlpool Corp</t>
+  </si>
+  <si>
+    <t>Whole Foods Market Inc</t>
+  </si>
+  <si>
+    <t>Williams Companies</t>
+  </si>
+  <si>
+    <t>Williams Cos Inc/The</t>
+  </si>
+  <si>
+    <t>Willis Towers Watson PLC</t>
+  </si>
+  <si>
+    <t>WW Grainger Inc</t>
+  </si>
+  <si>
+    <t>Wyndham Worldwide Corp</t>
+  </si>
+  <si>
+    <t>Wynn Resorts</t>
+  </si>
+  <si>
+    <t>Wynn Resorts Ltd</t>
+  </si>
+  <si>
+    <t>Xcel Energy</t>
+  </si>
+  <si>
+    <t>Xcel Energy Inc</t>
+  </si>
+  <si>
+    <t>Xerox</t>
+  </si>
+  <si>
+    <t>Xerox Corp</t>
+  </si>
+  <si>
+    <t>Xilinx Inc</t>
+  </si>
+  <si>
+    <t>XL Group PLC</t>
+  </si>
+  <si>
+    <t>Xylem</t>
+  </si>
+  <si>
+    <t>Xylem Inc/NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yahoo! </t>
+  </si>
+  <si>
+    <t>Yahoo! Inc</t>
+  </si>
+  <si>
+    <t>Yum Brands</t>
+  </si>
+  <si>
+    <t>Yum! Brands Inc</t>
+  </si>
+  <si>
+    <t>Zimmer Biomet Holdings Inc</t>
+  </si>
+  <si>
+    <t>Zions Bancorporation</t>
+  </si>
+  <si>
+    <t>Zoetis Inc</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -51,13 +1807,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -333,12 +2106,3212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="B117" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="B120" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="B121" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1"/>
+      <c r="B122" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1"/>
+      <c r="B123" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1"/>
+      <c r="B124" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1"/>
+      <c r="B125" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+      <c r="B126" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1"/>
+      <c r="B127" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1"/>
+      <c r="B128" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+      <c r="B129" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1"/>
+      <c r="B130" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1"/>
+      <c r="B131" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1"/>
+      <c r="B132" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+      <c r="B133" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1"/>
+      <c r="B134" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1"/>
+      <c r="B135" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1"/>
+      <c r="B136" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1"/>
+      <c r="B137" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1"/>
+      <c r="B138" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1"/>
+      <c r="B139" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1"/>
+      <c r="B140" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1"/>
+      <c r="B141" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="1"/>
+      <c r="B142" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1"/>
+      <c r="B143" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1"/>
+      <c r="B144" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1"/>
+      <c r="B145" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1"/>
+      <c r="B146" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1"/>
+      <c r="B147" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1"/>
+      <c r="B148" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="1"/>
+      <c r="B149" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="1"/>
+      <c r="B150" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="1"/>
+      <c r="B151" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1"/>
+      <c r="B152" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1"/>
+      <c r="B153" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="1"/>
+      <c r="B154" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1"/>
+      <c r="B155" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1"/>
+      <c r="B156" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="1"/>
+      <c r="B157" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="1"/>
+      <c r="B158" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1"/>
+      <c r="B159" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="1"/>
+      <c r="B160" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1"/>
+      <c r="B161" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1"/>
+      <c r="B162" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1"/>
+      <c r="B163" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1"/>
+      <c r="B164" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1"/>
+      <c r="B165" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1"/>
+      <c r="B166" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1"/>
+      <c r="B167" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1"/>
+      <c r="B168" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1"/>
+      <c r="B169" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1"/>
+      <c r="B170" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1"/>
+      <c r="B171" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="1"/>
+      <c r="B172" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1"/>
+      <c r="B173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1"/>
+      <c r="B174" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1"/>
+      <c r="B175" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1"/>
+      <c r="B176" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1"/>
+      <c r="B177" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1"/>
+      <c r="B178" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1"/>
+      <c r="B179" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1"/>
+      <c r="B180" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1"/>
+      <c r="B181" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1"/>
+      <c r="B182" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1"/>
+      <c r="B183" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1"/>
+      <c r="B184" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1"/>
+      <c r="B185" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1"/>
+      <c r="B186" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1"/>
+      <c r="B187" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1"/>
+      <c r="B188" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1"/>
+      <c r="B189" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="1"/>
+      <c r="B190" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1"/>
+      <c r="B191" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="1"/>
+      <c r="B192" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1"/>
+      <c r="B193" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1"/>
+      <c r="B194" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1"/>
+      <c r="B195" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1"/>
+      <c r="B196" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="1"/>
+      <c r="B197" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="1"/>
+      <c r="B198" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="1"/>
+      <c r="B199" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="1"/>
+      <c r="B200" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="1"/>
+      <c r="B201" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="1"/>
+      <c r="B202" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="1"/>
+      <c r="B203" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="1"/>
+      <c r="B204" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="1"/>
+      <c r="B205" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="1"/>
+      <c r="B206" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="1"/>
+      <c r="B207" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="1"/>
+      <c r="B208" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="1"/>
+      <c r="B209" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="1"/>
+      <c r="B210" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="1"/>
+      <c r="B211" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="1"/>
+      <c r="B212" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="1"/>
+      <c r="B213" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="1"/>
+      <c r="B214" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="1"/>
+      <c r="B215" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="1"/>
+      <c r="B216" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="1"/>
+      <c r="B217" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="1"/>
+      <c r="B218" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="1"/>
+      <c r="B219" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="1"/>
+      <c r="B220" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="1"/>
+      <c r="B221" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="1"/>
+      <c r="B222" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="1"/>
+      <c r="B223" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="1"/>
+      <c r="B224" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="1"/>
+      <c r="B225" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="1"/>
+      <c r="B226" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="1"/>
+      <c r="B227" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="1"/>
+      <c r="B228" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="1"/>
+      <c r="B229" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="1"/>
+      <c r="B230" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="1"/>
+      <c r="B231" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="1"/>
+      <c r="B232" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="1"/>
+      <c r="B233" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="1"/>
+      <c r="B234" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="1"/>
+      <c r="B235" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="1"/>
+      <c r="B236" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="1"/>
+      <c r="B237" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="1"/>
+      <c r="B238" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="1"/>
+      <c r="B239" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="1"/>
+      <c r="B240" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="1"/>
+      <c r="B241" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="1"/>
+      <c r="B242" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="1"/>
+      <c r="B243" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="1"/>
+      <c r="B244" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="1"/>
+      <c r="B245" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="1"/>
+      <c r="B246" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="1"/>
+      <c r="B247" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="1"/>
+      <c r="B248" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="1"/>
+      <c r="B249" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="1"/>
+      <c r="B250" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="1"/>
+      <c r="B251" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="1"/>
+      <c r="B252" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="1"/>
+      <c r="B253" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="1"/>
+      <c r="B254" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="1"/>
+      <c r="B255" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="1"/>
+      <c r="B256" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="1"/>
+      <c r="B257" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="1"/>
+      <c r="B258" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="1"/>
+      <c r="B259" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="1"/>
+      <c r="B260" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="1"/>
+      <c r="B261" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="1"/>
+      <c r="B262" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="1"/>
+      <c r="B263" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="1"/>
+      <c r="B264" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="1"/>
+      <c r="B265" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="1"/>
+      <c r="B266" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="1"/>
+      <c r="B267" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="1"/>
+      <c r="B268" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="1"/>
+      <c r="B269" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="1"/>
+      <c r="B270" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="1"/>
+      <c r="B271" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="1"/>
+      <c r="B272" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="1"/>
+      <c r="B273" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="1"/>
+      <c r="B274" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="1"/>
+      <c r="B275" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="1"/>
+      <c r="B276" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="1"/>
+      <c r="B277" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="1"/>
+      <c r="B278" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="1"/>
+      <c r="B279" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="1"/>
+      <c r="B280" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="1"/>
+      <c r="B281" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="1"/>
+      <c r="B282" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="1"/>
+      <c r="B283" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="1"/>
+      <c r="B284" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="1"/>
+      <c r="B285" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="1"/>
+      <c r="B286" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="1"/>
+      <c r="B287" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="1"/>
+      <c r="B288" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="1"/>
+      <c r="B289" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="1"/>
+      <c r="B290" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="1"/>
+      <c r="B291" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="1"/>
+      <c r="B292" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="1"/>
+      <c r="B293" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="1"/>
+      <c r="B294" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="1"/>
+      <c r="B295" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="1"/>
+      <c r="B296" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="1"/>
+      <c r="B297" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="1"/>
+      <c r="B298" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="1"/>
+      <c r="B299" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="1"/>
+      <c r="B300" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="1"/>
+      <c r="B301" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="1"/>
+      <c r="B302" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="1"/>
+      <c r="B303" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="1"/>
+      <c r="B304" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="1"/>
+      <c r="B305" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="1"/>
+      <c r="B306" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="1"/>
+      <c r="B307" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="1"/>
+      <c r="B308" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="1"/>
+      <c r="B309" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="1"/>
+      <c r="B310" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="1"/>
+      <c r="B311" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="1"/>
+      <c r="B312" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="1"/>
+      <c r="B313" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="1"/>
+      <c r="B314" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="1"/>
+      <c r="B315" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="1"/>
+      <c r="B316" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="1"/>
+      <c r="B317" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="1"/>
+      <c r="B318" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="1"/>
+      <c r="B319" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="1"/>
+      <c r="B320" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="1"/>
+      <c r="B321" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="1"/>
+      <c r="B322" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="1"/>
+      <c r="B323" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="1"/>
+      <c r="B324" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="1"/>
+      <c r="B325" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="1"/>
+      <c r="B326" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="1"/>
+      <c r="B327" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="1"/>
+      <c r="B328" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="1"/>
+      <c r="B329" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="1"/>
+      <c r="B330" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="1"/>
+      <c r="B331" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="1"/>
+      <c r="B332" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="1"/>
+      <c r="B333" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="1"/>
+      <c r="B334" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="1"/>
+      <c r="B335" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="1"/>
+      <c r="B336" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="1"/>
+      <c r="B337" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="1"/>
+      <c r="B338" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="1"/>
+      <c r="B339" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="1"/>
+      <c r="B340" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="1"/>
+      <c r="B341" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="1"/>
+      <c r="B342" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="1"/>
+      <c r="B343" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="1"/>
+      <c r="B344" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="1"/>
+      <c r="B345" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="1"/>
+      <c r="B346" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="1"/>
+      <c r="B347" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="1"/>
+      <c r="B348" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="1"/>
+      <c r="B349" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="1"/>
+      <c r="B350" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="1"/>
+      <c r="B351" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="1"/>
+      <c r="B352" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="1"/>
+      <c r="B353" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="1"/>
+      <c r="B354" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" s="1"/>
+      <c r="B355" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="1"/>
+      <c r="B356" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="1"/>
+      <c r="B357" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" s="1"/>
+      <c r="B358" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="1"/>
+      <c r="B359" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="1"/>
+      <c r="B360" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" s="1"/>
+      <c r="B361" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="1"/>
+      <c r="B362" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="1"/>
+      <c r="B363" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="1"/>
+      <c r="B364" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="1"/>
+      <c r="B365" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="1"/>
+      <c r="B366" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="1"/>
+      <c r="B367" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="1"/>
+      <c r="B368" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="1"/>
+      <c r="B369" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" s="1"/>
+      <c r="B370" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" s="1"/>
+      <c r="B371" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B372" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="1"/>
+      <c r="B373" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="1"/>
+      <c r="B374" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="1"/>
+      <c r="B375" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="1"/>
+      <c r="B376" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="1"/>
+      <c r="B377" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="1"/>
+      <c r="B378" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B379" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" s="1"/>
+      <c r="B380" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="1"/>
+      <c r="B381" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="1"/>
+      <c r="B382" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="1"/>
+      <c r="B383" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B384" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="1"/>
+      <c r="B385" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="1"/>
+      <c r="B386" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="1"/>
+      <c r="B387" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="1"/>
+      <c r="B388" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B389" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B390" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B391" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B392" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B393" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="1"/>
+      <c r="B394" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="1"/>
+      <c r="B395" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B396" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B397" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B398" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="1"/>
+      <c r="B399" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B400" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B401" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="1"/>
+      <c r="B402" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B403" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B404" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B405" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B406" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="1"/>
+      <c r="B407" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B408" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B409" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B410" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="1"/>
+      <c r="B411" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="1"/>
+      <c r="B412" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="1"/>
+      <c r="B413" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="1"/>
+      <c r="B414" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="1"/>
+      <c r="B415" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B416" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="1"/>
+      <c r="B417" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B418" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B419" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B420" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B421" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B422" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="1"/>
+      <c r="B423" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="1"/>
+      <c r="B424" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B425" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="1"/>
+      <c r="B426" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="1"/>
+      <c r="B427" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="1"/>
+      <c r="B428" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B429" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="1"/>
+      <c r="B430" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="1"/>
+      <c r="B431" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="1"/>
+      <c r="B432" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B433" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B434" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B435" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B436" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B437" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B438" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B439" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" s="1"/>
+      <c r="B440" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B441" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B442" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" s="1"/>
+      <c r="B443" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B444" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B445" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" s="1"/>
+      <c r="B446" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" s="1"/>
+      <c r="B447" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" s="1"/>
+      <c r="B448" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" s="1"/>
+      <c r="B449" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" s="1"/>
+      <c r="B450" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B451" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B452" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" s="1"/>
+      <c r="B453" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" s="1"/>
+      <c r="B454" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" s="1"/>
+      <c r="B455" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" s="1"/>
+      <c r="B456" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" s="1"/>
+      <c r="B457" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" s="1"/>
+      <c r="B458" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B459" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" s="1"/>
+      <c r="B460" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B461" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" s="1"/>
+      <c r="B462" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" s="1"/>
+      <c r="B463" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" s="1"/>
+      <c r="B464" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" s="1"/>
+      <c r="B465" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B466" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B467" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B468" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" s="1"/>
+      <c r="B469" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B470" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B471" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" s="1"/>
+      <c r="B472" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B473" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B474" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" s="1"/>
+      <c r="B475" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" s="1"/>
+      <c r="B476" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B477" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B478" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B479" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B480" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" s="1"/>
+      <c r="B481" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" s="1"/>
+      <c r="B482" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" s="1"/>
+      <c r="B483" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B484" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" s="1"/>
+      <c r="B485" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" s="1"/>
+      <c r="B486" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" s="1"/>
+      <c r="B487" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" s="1"/>
+      <c r="B488" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B489" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B490" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" s="1"/>
+      <c r="B491" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B492" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" s="1"/>
+      <c r="B493" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" s="1"/>
+      <c r="B494" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" s="1"/>
+      <c r="B495" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B496" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B497" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B498" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B499" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" s="1"/>
+      <c r="B500" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B501" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B502" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B503" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" s="1"/>
+      <c r="B504" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" s="1"/>
+      <c r="B505" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" s="1"/>
+      <c r="B506" t="s">
+        <v>575</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>